--- a/data/hotels_by_city/Houston/Houston_shard_498.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_498.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d244388-Reviews-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Houston-North-Spring.h996194.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531443997411&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=a7c70caa-3d57-45e8-9691-510d601e43fa&amp;mctc=9&amp;exp_dp=49.99&amp;exp_ts=1531443997927&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,822 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r582736100-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>244388</t>
+  </si>
+  <si>
+    <t>582736100</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Clean,safe and good price</t>
+  </si>
+  <si>
+    <t>I have chosen this Motel 6 because of the good price and decent ratings. And it was a good choice. I had a warm welcome and got my room very quickly. It was clean and equipped with a fridge, microwave and tv. Everything worked well and the place seemed to be safe. It has nice swimming pool. My bed was very comfortable. staff is very mindful. I will come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Hotel Manager at Motel 6 Houston North - Spring, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>I have chosen this Motel 6 because of the good price and decent ratings. And it was a good choice. I had a warm welcome and got my room very quickly. It was clean and equipped with a fridge, microwave and tv. Everything worked well and the place seemed to be safe. It has nice swimming pool. My bed was very comfortable. staff is very mindful. I will come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r574953408-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>574953408</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Nice room and price</t>
+  </si>
+  <si>
+    <t>I'm loving the quiet place the room is big enough for my daughter to run around and play. My king size bed fit us all and it is comfortable. I also loving how security walks around at night.The price is wonderful for the loctaion.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Hotel Manager at Motel 6 Houston North - Spring, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>I'm loving the quiet place the room is big enough for my daughter to run around and play. My king size bed fit us all and it is comfortable. I also loving how security walks around at night.The price is wonderful for the loctaion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r569784571-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>569784571</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>So bad that we are still talking about it</t>
+  </si>
+  <si>
+    <t>I wanted to be fair, so the extra star was because the beds were comfortable. The rest of our stay was so horrible it was almost comical.
+Bulletpoints - check in with a trainee, a trainer and another person, all confused about everything, bickering and doing then un-doing their progress. I think the third woman actually had a clue but couldn't speak up. 
+Grim lobby, grim everything, not clean and looked abandoned. We werent expecting 4 star atmosphere, but the shabbiness, grime, broken ice machine in parts, all just bad.
+Room - huge, and the beds were comfy. The towels, soap, etc were fine, its a cheap motel. Oh wait, it really wasn't, we'll get to that in a sec.
+  Room not ready, went downstairs, wrong room, got new card after more confusion, back upstairs, had to let cleaner in. 
+   TV not working, when we asked for help a nice person came up and figured out how to turn it on, it seemed it had been disabled. We then saw why, the screen was split in two, half fine, half an inch higher. Bizarre and unwatchable.
+Pool was closed, ok, it was January, but looked like a bomb site.
+The best though, was two strangers entering the room at 7am. They had been given the wrong keys. Hello!
+So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more....I wanted to be fair, so the extra star was because the beds were comfortable. The rest of our stay was so horrible it was almost comical.Bulletpoints - check in with a trainee, a trainer and another person, all confused about everything, bickering and doing then un-doing their progress. I think the third woman actually had a clue but couldn't speak up. Grim lobby, grim everything, not clean and looked abandoned. We werent expecting 4 star atmosphere, but the shabbiness, grime, broken ice machine in parts, all just bad.Room - huge, and the beds were comfy. The towels, soap, etc were fine, its a cheap motel. Oh wait, it really wasn't, we'll get to that in a sec.  Room not ready, went downstairs, wrong room, got new card after more confusion, back upstairs, had to let cleaner in.    TV not working, when we asked for help a nice person came up and figured out how to turn it on, it seemed it had been disabled. We then saw why, the screen was split in two, half fine, half an inch higher. Bizarre and unwatchable.Pool was closed, ok, it was January, but looked like a bomb site.The best though, was two strangers entering the room at 7am. They had been given the wrong keys. Hello!So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more. PARADISE compared.Avoid this Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston North - Spring, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>I wanted to be fair, so the extra star was because the beds were comfortable. The rest of our stay was so horrible it was almost comical.
+Bulletpoints - check in with a trainee, a trainer and another person, all confused about everything, bickering and doing then un-doing their progress. I think the third woman actually had a clue but couldn't speak up. 
+Grim lobby, grim everything, not clean and looked abandoned. We werent expecting 4 star atmosphere, but the shabbiness, grime, broken ice machine in parts, all just bad.
+Room - huge, and the beds were comfy. The towels, soap, etc were fine, its a cheap motel. Oh wait, it really wasn't, we'll get to that in a sec.
+  Room not ready, went downstairs, wrong room, got new card after more confusion, back upstairs, had to let cleaner in. 
+   TV not working, when we asked for help a nice person came up and figured out how to turn it on, it seemed it had been disabled. We then saw why, the screen was split in two, half fine, half an inch higher. Bizarre and unwatchable.
+Pool was closed, ok, it was January, but looked like a bomb site.
+The best though, was two strangers entering the room at 7am. They had been given the wrong keys. Hello!
+So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more....I wanted to be fair, so the extra star was because the beds were comfortable. The rest of our stay was so horrible it was almost comical.Bulletpoints - check in with a trainee, a trainer and another person, all confused about everything, bickering and doing then un-doing their progress. I think the third woman actually had a clue but couldn't speak up. Grim lobby, grim everything, not clean and looked abandoned. We werent expecting 4 star atmosphere, but the shabbiness, grime, broken ice machine in parts, all just bad.Room - huge, and the beds were comfy. The towels, soap, etc were fine, its a cheap motel. Oh wait, it really wasn't, we'll get to that in a sec.  Room not ready, went downstairs, wrong room, got new card after more confusion, back upstairs, had to let cleaner in.    TV not working, when we asked for help a nice person came up and figured out how to turn it on, it seemed it had been disabled. We then saw why, the screen was split in two, half fine, half an inch higher. Bizarre and unwatchable.Pool was closed, ok, it was January, but looked like a bomb site.The best though, was two strangers entering the room at 7am. They had been given the wrong keys. Hello!So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more. PARADISE compared.Avoid this Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r526347262-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>526347262</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Out running the flood</t>
+  </si>
+  <si>
+    <t>We stayed here during the flooding caused by Hurricane Harvey. The fist room was unfinished; no bed covers, toilet seat or shower head. They moved us down the ball. All of the things were present, but the AC unit was leaking water. Water was all over the floor too much for towels to take care of. We told them they said it was okay just put towels on it. Then the smoke alarm would not go off, so after a day someone came and disconnected it. I don't know why this place hasn't been shut down for Healthy Code violations! When we went to the parking lot there were lots of scary people hanging out in the parking lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here during the flooding caused by Hurricane Harvey. The fist room was unfinished; no bed covers, toilet seat or shower head. They moved us down the ball. All of the things were present, but the AC unit was leaking water. Water was all over the floor too much for towels to take care of. We told them they said it was okay just put towels on it. Then the smoke alarm would not go off, so after a day someone came and disconnected it. I don't know why this place hasn't been shut down for Healthy Code violations! When we went to the parking lot there were lots of scary people hanging out in the parking lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r476764497-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>476764497</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Unclean and possibly unsafe!!</t>
+  </si>
+  <si>
+    <t>We recently had AC issues and considered a stay for a night or two that was close to home. The outside is in disrepair and looks very unsightly: curtains hanging out the windows, trash on ledges, unkempt entryway, reeks of cigarette smoke, and more. The characters standing outside were a little scary. The motel is far from clean or inviting. I would not recommend this location. I think it is time to either change the name from Motel 6 or clean this place up!! We chose a different motel within a mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston North - Spring, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>We recently had AC issues and considered a stay for a night or two that was close to home. The outside is in disrepair and looks very unsightly: curtains hanging out the windows, trash on ledges, unkempt entryway, reeks of cigarette smoke, and more. The characters standing outside were a little scary. The motel is far from clean or inviting. I would not recommend this location. I think it is time to either change the name from Motel 6 or clean this place up!! We chose a different motel within a mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r469473876-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>469473876</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>scary place dont come here</t>
+  </si>
+  <si>
+    <t>The room is dimly lit with yellow light. there are holes in the wall the smoke alarm was hanging off the wall wires hanging out of the wall. The window didn't close all the way the sheets had visible stains all over them. there were cockroaches in the bathroom. We left out to get dinner when we got back some guy was lingering in the hallway on our floor and said "hey hey i need to ask you something" he looked super shady but i responded as we walked to our door and he said " do you smoke? i can give you a good deal" I said no thanks and went inside my room. The guy tried to sell us drugs in the hallway. Then when i got undressed for a shower the water wasn't  running. There wAS NO RUNNING WATER!!!  we couldn't shower or  flush the toilet or wash our hands. I called downstairs and the guy said he would get the issue fixed and never did. This place is really scary and rundown. very "hood" drug addicts in the hallways no running water lots of cockroaches dirty room window doesn't close al the way. It was a nightmare. left the next morning and got a refund for the rest of the days. DONT come here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Houston North - Spring, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>The room is dimly lit with yellow light. there are holes in the wall the smoke alarm was hanging off the wall wires hanging out of the wall. The window didn't close all the way the sheets had visible stains all over them. there were cockroaches in the bathroom. We left out to get dinner when we got back some guy was lingering in the hallway on our floor and said "hey hey i need to ask you something" he looked super shady but i responded as we walked to our door and he said " do you smoke? i can give you a good deal" I said no thanks and went inside my room. The guy tried to sell us drugs in the hallway. Then when i got undressed for a shower the water wasn't  running. There wAS NO RUNNING WATER!!!  we couldn't shower or  flush the toilet or wash our hands. I called downstairs and the guy said he would get the issue fixed and never did. This place is really scary and rundown. very "hood" drug addicts in the hallways no running water lots of cockroaches dirty room window doesn't close al the way. It was a nightmare. left the next morning and got a refund for the rest of the days. DONT come here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r392646491-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>392646491</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Fix the Lobby</t>
+  </si>
+  <si>
+    <t>Fix the Lobby - It was a mess.  This is not exactly what you want a guest to see as the first impression... If it had not been so late I might have moved to another Motel 6 somewhere else.  Provided AARP discount.  close to foodMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Fix the Lobby - It was a mess.  This is not exactly what you want a guest to see as the first impression... If it had not been so late I might have moved to another Motel 6 somewhere else.  Provided AARP discount.  close to foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r336720101-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>336720101</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Cheap but shows it.</t>
+  </si>
+  <si>
+    <t>Needed a spot to sleep for 7 hours.  Place was really beat up. Lady at checkout had just arguing with someone and I felt bad for her, she handled it professionally. Was hard to find the entrance to the hotel, really in the middle of a bunch of buildings. The doors were mostly propped open with rocks. The rooms are just as the picture shows.. nothing fancy not a fridge or coffee maker. But bed seemed clean and towels clean. Old hotel, but it worked for $50.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston North - Spring, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Needed a spot to sleep for 7 hours.  Place was really beat up. Lady at checkout had just arguing with someone and I felt bad for her, she handled it professionally. Was hard to find the entrance to the hotel, really in the middle of a bunch of buildings. The doors were mostly propped open with rocks. The rooms are just as the picture shows.. nothing fancy not a fridge or coffee maker. But bed seemed clean and towels clean. Old hotel, but it worked for $50.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r333165121-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>333165121</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Last Choice</t>
+  </si>
+  <si>
+    <t>The motel has a very tight parking lot, so if there are trucks and big vehicles you will be at risk for damage. The room and hallways were clean but there were no paintings or pictures. The bathroom was old with the tile mismatched and discolored. The room had a musty scent.The primary reason for the low rating is the staff, although friendly and courteous they were inept. Excessive paperwork upon checkin. I was awoken 1 hour into my sleep because they had missed me signing that I was pet free. I would never recommend a stay at this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>The motel has a very tight parking lot, so if there are trucks and big vehicles you will be at risk for damage. The room and hallways were clean but there were no paintings or pictures. The bathroom was old with the tile mismatched and discolored. The room had a musty scent.The primary reason for the low rating is the staff, although friendly and courteous they were inept. Excessive paperwork upon checkin. I was awoken 1 hour into my sleep because they had missed me signing that I was pet free. I would never recommend a stay at this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r317563252-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>317563252</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Cant get better in $56</t>
+  </si>
+  <si>
+    <t>This is decent hotel to stay with good facilities like pool and Vending machines and the people are cooperative. Area near the hotel is excellent for restaurants and shopping. The only bad thing is it smells sometimes.i would recommend it to my friend for short period.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This is decent hotel to stay with good facilities like pool and Vending machines and the people are cooperative. Area near the hotel is excellent for restaurants and shopping. The only bad thing is it smells sometimes.i would recommend it to my friend for short period.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r309969173-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>309969173</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>Clean rooms, great price and wonderful customer service. I stay here very frequently and would recommend it to anyone. The front desk girl is very friendly. Great cable package and snack machines as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Clean rooms, great price and wonderful customer service. I stay here very frequently and would recommend it to anyone. The front desk girl is very friendly. Great cable package and snack machines as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r303771619-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>303771619</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>This place is nice, I dont know what all this people are talking about...</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks now in two separate occasions and staff has always been very helpful and friendly, my kids love the pool. The price is very cheap for a good area and much bigger than  Intown suites and other motels I have paid for. I do recommend this place, never had a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks now in two separate occasions and staff has always been very helpful and friendly, my kids love the pool. The price is very cheap for a good area and much bigger than  Intown suites and other motels I have paid for. I do recommend this place, never had a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r281776409-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>281776409</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Worst place I have been too.</t>
+  </si>
+  <si>
+    <t>This hotel was by far the worst I have ever been. Felt like I was scared to go to sleep. At night you thought you was going to get robbed. Random people standing around smoking selling drugs. People sleeping in the hallways. To top it off our reservations were messed up and we had to stand around for 30 minutes the reason I made a reservation was to make it a quick process but that failed to happen. I will never ever go to this hotel ever again. Plus the water pressure was so bad there barely was any water coming out of the shower head. The ac unit sucked barely blew out any ac.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston North - Spring, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was by far the worst I have ever been. Felt like I was scared to go to sleep. At night you thought you was going to get robbed. Random people standing around smoking selling drugs. People sleeping in the hallways. To top it off our reservations were messed up and we had to stand around for 30 minutes the reason I made a reservation was to make it a quick process but that failed to happen. I will never ever go to this hotel ever again. Plus the water pressure was so bad there barely was any water coming out of the shower head. The ac unit sucked barely blew out any ac.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r278593684-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>278593684</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Decent room for $56</t>
+  </si>
+  <si>
+    <t>Not a bad place for what you pay. Biggest complaint is the noise . Don't stay here if you  are looking for peace and quiet.  Allot of outside noise as well as people staying there that don't want to go to sleep i guess....  Best thing about my room was the Shower i took . Great water pressure and Hot water.....  This is the 2nd time i have stayed there and both times were Ok . Like i said the noise is the big problem for me.  Also i had a discount code i used online to get 10 % off my rate. Total with tax was $56 ... Can't beat that....MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Not a bad place for what you pay. Biggest complaint is the noise . Don't stay here if you  are looking for peace and quiet.  Allot of outside noise as well as people staying there that don't want to go to sleep i guess....  Best thing about my room was the Shower i took . Great water pressure and Hot water.....  This is the 2nd time i have stayed there and both times were Ok . Like i said the noise is the big problem for me.  Also i had a discount code i used online to get 10 % off my rate. Total with tax was $56 ... Can't beat that....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r275551901-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>275551901</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Roach Motel anyone?</t>
+  </si>
+  <si>
+    <t>July 2014 - It smelt terrible-like mold and mildew. Stray cats all over the place. When I turned on the room light I saw bugs scurrying behind the headboard. Lifted up the mattress and saw more bugs. Demanded refund and found another hotel. I'm not a snob, stayed at plenty of cruddy motels without writing a nasty review or demanding refund. Absolutely disgusting, Hope they have made improvements since 2014. I can't believe they are affiliated w/ Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston North - Spring, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>July 2014 - It smelt terrible-like mold and mildew. Stray cats all over the place. When I turned on the room light I saw bugs scurrying behind the headboard. Lifted up the mattress and saw more bugs. Demanded refund and found another hotel. I'm not a snob, stayed at plenty of cruddy motels without writing a nasty review or demanding refund. Absolutely disgusting, Hope they have made improvements since 2014. I can't believe they are affiliated w/ Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r240434321-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>240434321</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Not a Good Experience</t>
+  </si>
+  <si>
+    <t>This place was pretty bad from the horrible attitude of the front desk staff (which I assume was the owner) to the pot smelling 2nd floor to our a/c not being "turned on." To not having our room ready. I did not feel safe here and I've stayed at plenty low end hotels including Motel 6s when I'm doing a quick night stay.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r239391216-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>239391216</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Good for the money!!!</t>
+  </si>
+  <si>
+    <t>Good, fast service, no problems found!!!!!!!!!!!!!!! Easy parking store around for easy shopping and very acces able to freeway nice people like jay Patel and Lorena .... Thanks so much and see u next week guys</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r239331209-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>239331209</t>
+  </si>
+  <si>
+    <t>Not worth a repeat visit</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel since I was scheduled to do an art show nearby.  I was disenchanted with the hotel I usually stay at when I'm in the area, so thought I would try Motel 6.  When I checked in, the desk clerk was super friendly and told me that I could park in a handicapped space since I had display items for my show in the car and it would be safe.  I did not opt to take advantage of her kind offer but the next night, the girl on duty was full of attitude and told me if I parked in a handicapped space, my car would be towed.  I told her the only person who would call a tow truck would be her and she gave me attitude.  I reported her to person on duty on Sunday morning and she got one of the owners on the phone.  However, it did not rectify the situation from the night before.  I also discovered a number of people live at this hotel---and I saw a few somewhat shady folks.  Since I travel alone, I wished I had stayed elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel since I was scheduled to do an art show nearby.  I was disenchanted with the hotel I usually stay at when I'm in the area, so thought I would try Motel 6.  When I checked in, the desk clerk was super friendly and told me that I could park in a handicapped space since I had display items for my show in the car and it would be safe.  I did not opt to take advantage of her kind offer but the next night, the girl on duty was full of attitude and told me if I parked in a handicapped space, my car would be towed.  I told her the only person who would call a tow truck would be her and she gave me attitude.  I reported her to person on duty on Sunday morning and she got one of the owners on the phone.  However, it did not rectify the situation from the night before.  I also discovered a number of people live at this hotel---and I saw a few somewhat shady folks.  Since I travel alone, I wished I had stayed elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r208511834-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>208511834</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Every week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay just about every week  and I get a decent room an most of the staff always remember me and are always very welcoming to me an I never have issues of any kind with my room. So in my opinion an for the price its a good buy an stay an with a cinema, places to eat, store near by makes it convenient. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r207174653-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>207174653</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Worth every penny</t>
+  </si>
+  <si>
+    <t>Excellent service. The indian couple who runs this place are very co-operative and so is the other staffs.  Good clean rooms and friendly support staffs.  Super target is closeby.. just across the parking lot.  There are a plenty of dining options like brother's pizza, Dennys, jack in the box and so many places. Laundry, haircut, and salons everything close by makes this place even more good.Also this place is very close to the airport.Will come back again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r207140881-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>207140881</t>
+  </si>
+  <si>
+    <t>Should have looked for another location!!!</t>
+  </si>
+  <si>
+    <t>The hotel manager and the staff does not follow the same rules. When booking the room one staff member told me I could check in anytime. Someone told me only after 3pm. Then I specifically reserved a king bed  with fridg and microwave. Manager continued to try to make stay in double room. When I insisted that my money be returned he began to meet my needs. Hot water exited the building by10:30pm. I asked for extra pillows for my tired aching leg at 8:45 and received it by  10:00.  No soap in the restroom,the carpet was wet in the hallway. Overall if I has to ever sleep here again, I would rather sleep in my car parked on I-45 No thank you!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel manager and the staff does not follow the same rules. When booking the room one staff member told me I could check in anytime. Someone told me only after 3pm. Then I specifically reserved a king bed  with fridg and microwave. Manager continued to try to make stay in double room. When I insisted that my money be returned he began to meet my needs. Hot water exited the building by10:30pm. I asked for extra pillows for my tired aching leg at 8:45 and received it by  10:00.  No soap in the restroom,the carpet was wet in the hallway. Overall if I has to ever sleep here again, I would rather sleep in my car parked on I-45 No thank you!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r204160803-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>204160803</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Clean No Frills Motel</t>
+  </si>
+  <si>
+    <t>Plain basic accommodations.  Very clean. Flat screen TV with Direct TV satellite was nice. Friendly front desk.  Next to a Super Target, so picking up forgotten essentials was not a problem.  The only thing that was an inconvenience was not having a hair dryer.  Other than that, it was exactly what we needed, a cheap basic place to lay our heads.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r203118228-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>203118228</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel service ever!</t>
+  </si>
+  <si>
+    <t>So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!
+We get to our room and notice the sliding window is not closed and will not close.
+After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up,...So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!We get to our room and notice the sliding window is not closed and will not close.After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up, frustrated he blows out what do you want. I tell him our room key will not open the door. He rolls his eyes and grabs the key to reprogram it for our room. There were several people in the lobby at this time very upset that no one was around to cover the window. And VERY UPSET no one would answer the phone! If you don't mind being treated like trash when you stay at a hotel then go ahead and stay here. As for me I will not ever stay here again!  Oh yeah and the bathtubs in both rooms looked like they needed a good scrubbing. I was tempted to go across the parking lot to Super Target and buy my own cleaning supplies to clean the tub. Disgusting!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!
+We get to our room and notice the sliding window is not closed and will not close.
+After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up,...So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!We get to our room and notice the sliding window is not closed and will not close.After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up, frustrated he blows out what do you want. I tell him our room key will not open the door. He rolls his eyes and grabs the key to reprogram it for our room. There were several people in the lobby at this time very upset that no one was around to cover the window. And VERY UPSET no one would answer the phone! If you don't mind being treated like trash when you stay at a hotel then go ahead and stay here. As for me I will not ever stay here again!  Oh yeah and the bathtubs in both rooms looked like they needed a good scrubbing. I was tempted to go across the parking lot to Super Target and buy my own cleaning supplies to clean the tub. Disgusting!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r199109531-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>199109531</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>They refused to let us on our Room!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were driving 9 hours to this motel. We were three hours away when the guy at the motel called and said he was giving our room away because we weren't there. We told him we were on the way and he mumbled something about giving away our room. When we finally got there he told us they don't allow dogs so we couldn't stay or we could stay and leave the dogs in the car!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r187006801-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>187006801</t>
+  </si>
+  <si>
+    <t>12/07/2013</t>
+  </si>
+  <si>
+    <t>Nice motel to Stay</t>
+  </si>
+  <si>
+    <t>Pros:-Room was neat and clean. Good motel at low price.Cons:-Someone was watching TV with loud sound past midnight. I could hear people talking in the hallway past midnight.Also, water flow is slow which is expected.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r183006261-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>183006261</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Terrified....</t>
+  </si>
+  <si>
+    <t>I checked in with two small dogs..which was the easiest hotel for dogs..most hotels need a full rundown of your dogs behavior/ size...my room is near the exit which is what I requested...worst decision of my life...this hotel is sketchy...I moved my car by the window to my room.. and pushed furniture in front of the door... oh yeah and grabbed blankets from the car for the bed...good luckMoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Houston North - Spring, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>I checked in with two small dogs..which was the easiest hotel for dogs..most hotels need a full rundown of your dogs behavior/ size...my room is near the exit which is what I requested...worst decision of my life...this hotel is sketchy...I moved my car by the window to my room.. and pushed furniture in front of the door... oh yeah and grabbed blankets from the car for the bed...good luckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r173965829-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>173965829</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Pros and Cons. Long Review</t>
+  </si>
+  <si>
+    <t>I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave...I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave the roach bug made his appearance. I hate roach bugs !MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave...I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave the roach bug made his appearance. I hate roach bugs !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r167466073-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>167466073</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Very friendly staff who called our room 10 minutes after we checked in just to make sure everything was good and that the room met out standards. Convenient location. Clean rooms. Good prices. Comfy beds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r145825283-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>145825283</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>Finding the hotel at much cheaper prices than its competition, I booked this hotel online three months in advance before I was to arrive. As much as I would like to say that I was greeted by friendly staff, I would have to admit that rather I was greeted (eventually) by distracted and busy staff. What was discouraging was the fact that this property was in the middle of remodeling one of their floors as debris and equipment were all over the lobby floor and into the hallway that led to the rest of the hotel rooms. After requesting a handicap accessible room, I found that the bathroom was merely accessible to the bare minimum. It was such a disappointment. But at least it was in a sense, accessible for me to get in and out of the bathroom with a wheelchair and there was no unnecessary curbs or steps to get inside of the room. 
+The manager/owner of the hotel seemed to have been the most polite person there. Ready to deal with what issues there may be. 
+I was not thrilled with the fact that when I pulled the sheets back on the bed to rest my weary body that I found several long dark hairs clinging to the sheets. Several minutes later, the telephone in the room rang and the front desk was asking if everything was okay. After I told them about the hairs in the...Finding the hotel at much cheaper prices than its competition, I booked this hotel online three months in advance before I was to arrive. As much as I would like to say that I was greeted by friendly staff, I would have to admit that rather I was greeted (eventually) by distracted and busy staff. What was discouraging was the fact that this property was in the middle of remodeling one of their floors as debris and equipment were all over the lobby floor and into the hallway that led to the rest of the hotel rooms. After requesting a handicap accessible room, I found that the bathroom was merely accessible to the bare minimum. It was such a disappointment. But at least it was in a sense, accessible for me to get in and out of the bathroom with a wheelchair and there was no unnecessary curbs or steps to get inside of the room. The manager/owner of the hotel seemed to have been the most polite person there. Ready to deal with what issues there may be. I was not thrilled with the fact that when I pulled the sheets back on the bed to rest my weary body that I found several long dark hairs clinging to the sheets. Several minutes later, the telephone in the room rang and the front desk was asking if everything was okay. After I told them about the hairs in the bed, the only reaction/response I received was "Sorry about that, sir." And nothing was done about it. I did go to the front desk to let them know that their television was not in full working order. Apparently up to half a dozen cable channels were not working, so instead of starting at channel 2 or 3, my television watching had to begin at channel 12. Beds were comfortable, yet again, staff wasn't exactly what I would consider friendly. This is located in south Texas, so I attempted to speak to housekeeping staff members in their native language of Spanish. To which they gazed upon me with discontent. I believe that the ONLY reason that I would return to this hotel for repeat business, is because of cost. Other than that, I will be looking for accommodations elsewhere first before I make another reservation with this property again. Inexpensive, but you still get what you pay for. I'm disgusted with the fact that they hadn't even bothered to think about sending an e-mail to me with an advanced warning that they were in the middle of remodeling. At least that would have been something that I could have been prepared for.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Finding the hotel at much cheaper prices than its competition, I booked this hotel online three months in advance before I was to arrive. As much as I would like to say that I was greeted by friendly staff, I would have to admit that rather I was greeted (eventually) by distracted and busy staff. What was discouraging was the fact that this property was in the middle of remodeling one of their floors as debris and equipment were all over the lobby floor and into the hallway that led to the rest of the hotel rooms. After requesting a handicap accessible room, I found that the bathroom was merely accessible to the bare minimum. It was such a disappointment. But at least it was in a sense, accessible for me to get in and out of the bathroom with a wheelchair and there was no unnecessary curbs or steps to get inside of the room. 
+The manager/owner of the hotel seemed to have been the most polite person there. Ready to deal with what issues there may be. 
+I was not thrilled with the fact that when I pulled the sheets back on the bed to rest my weary body that I found several long dark hairs clinging to the sheets. Several minutes later, the telephone in the room rang and the front desk was asking if everything was okay. After I told them about the hairs in the...Finding the hotel at much cheaper prices than its competition, I booked this hotel online three months in advance before I was to arrive. As much as I would like to say that I was greeted by friendly staff, I would have to admit that rather I was greeted (eventually) by distracted and busy staff. What was discouraging was the fact that this property was in the middle of remodeling one of their floors as debris and equipment were all over the lobby floor and into the hallway that led to the rest of the hotel rooms. After requesting a handicap accessible room, I found that the bathroom was merely accessible to the bare minimum. It was such a disappointment. But at least it was in a sense, accessible for me to get in and out of the bathroom with a wheelchair and there was no unnecessary curbs or steps to get inside of the room. The manager/owner of the hotel seemed to have been the most polite person there. Ready to deal with what issues there may be. I was not thrilled with the fact that when I pulled the sheets back on the bed to rest my weary body that I found several long dark hairs clinging to the sheets. Several minutes later, the telephone in the room rang and the front desk was asking if everything was okay. After I told them about the hairs in the bed, the only reaction/response I received was "Sorry about that, sir." And nothing was done about it. I did go to the front desk to let them know that their television was not in full working order. Apparently up to half a dozen cable channels were not working, so instead of starting at channel 2 or 3, my television watching had to begin at channel 12. Beds were comfortable, yet again, staff wasn't exactly what I would consider friendly. This is located in south Texas, so I attempted to speak to housekeeping staff members in their native language of Spanish. To which they gazed upon me with discontent. I believe that the ONLY reason that I would return to this hotel for repeat business, is because of cost. Other than that, I will be looking for accommodations elsewhere first before I make another reservation with this property again. Inexpensive, but you still get what you pay for. I'm disgusted with the fact that they hadn't even bothered to think about sending an e-mail to me with an advanced warning that they were in the middle of remodeling. At least that would have been something that I could have been prepared for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r137007197-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>137007197</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>I have stayed here before and it was in much better shape than now.  The staff was very friendly, but the place stunk everywhere.  The pool was dirty.  You didn't even have to use your keycard to get in the exit doors; they were just unlocked all the time.  It's cheap but we will not be staying here again.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r129373218-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>129373218</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Motel 6+ :)</t>
+  </si>
+  <si>
+    <t>I tend to frequent this particular motet 6. At $35 a night and free internet is hard to beat. However, over the past months they have REDONE the place and NO PRICE CHANGE. NOTE: The pictures are not correct here. Its nice, clean, and clean! (Yep, 2X) Motel 6... Nope. Motel 6+. ;) Good job Nimesh! Your doing a good thing sir. :)</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r120723087-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>120723087</t>
+  </si>
+  <si>
+    <t>11/17/2011</t>
+  </si>
+  <si>
+    <t>Bedbug bonanza!!!</t>
+  </si>
+  <si>
+    <t>The room was filthy and started itching after being in room for an hour.  It was late and just got done working a double shift so I didn't complain till the morning. Management was very rude and hostile.  The room smelt of vomit.  Do not let the cheap price lure you in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r120361063-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>120361063</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>OMG - Nastiest Place</t>
+  </si>
+  <si>
+    <t>I actually used to stay there frequently for concerts at Cynthia Woods and thought it would be a good economical place for my daughter and I to stay for a softball tournament.  Well I booked online and much to my horror it smelled and looked like an ill run shelter for crack heads.  Read the rest of my reviews - I'm honest but this was filthy and nasty.  Carpet was horrible, cigarette buts in the stair well, trash everywhere, wires hanging out.  Now for the price I didn't expect much but I was honestly on edge the entire night - I think half the building lived there.  Honestly the bathroom was clean but the bed was broken, the blanket had burn holes and pubic hairs on it - the sheets were just changed and were clean so I removed the bed coverings and used our softball blankets and pillows from the car.  The Motel 6 chain should revolk there priviledge of using the name - so incredibly disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I actually used to stay there frequently for concerts at Cynthia Woods and thought it would be a good economical place for my daughter and I to stay for a softball tournament.  Well I booked online and much to my horror it smelled and looked like an ill run shelter for crack heads.  Read the rest of my reviews - I'm honest but this was filthy and nasty.  Carpet was horrible, cigarette buts in the stair well, trash everywhere, wires hanging out.  Now for the price I didn't expect much but I was honestly on edge the entire night - I think half the building lived there.  Honestly the bathroom was clean but the bed was broken, the blanket had burn holes and pubic hairs on it - the sheets were just changed and were clean so I removed the bed coverings and used our softball blankets and pillows from the car.  The Motel 6 chain should revolk there priviledge of using the name - so incredibly disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r116001629-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>116001629</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Never Go to this hotel</t>
+  </si>
+  <si>
+    <t>I went to this hotel the parking lots was dirty. When I went to my room and remove the top sheet there was food in it so I just left. The only good thing was that I got my money back.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r91063486-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>91063486</t>
+  </si>
+  <si>
+    <t>12/29/2010</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>It actually takes very little to satisfy me, but I draw the line at bugs in hotel rooms.  Everytime I went to the restroom I would first have to kill a bug.  Also, the light was out at the desk.. I thought it was the bulb.  Bad customer service informed me the lightbulbs were locked up over the week-end so I was SOL.  I then switched bulbs from elsewhere and it was in fact, the fixture.  That made me even madder.  I needed the desk and I needed a light there.  Third was the icemachine that would only dispense one bucket full once every several hours (if your timing was better than your neighbor's.)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>It actually takes very little to satisfy me, but I draw the line at bugs in hotel rooms.  Everytime I went to the restroom I would first have to kill a bug.  Also, the light was out at the desk.. I thought it was the bulb.  Bad customer service informed me the lightbulbs were locked up over the week-end so I was SOL.  I then switched bulbs from elsewhere and it was in fact, the fixture.  That made me even madder.  I needed the desk and I needed a light there.  Third was the icemachine that would only dispense one bucket full once every several hours (if your timing was better than your neighbor's.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r86840307-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>86840307</t>
+  </si>
+  <si>
+    <t>11/12/2010</t>
+  </si>
+  <si>
+    <t>What I expected...</t>
+  </si>
+  <si>
+    <t>I wanted a cheap hotel as I was trying to keep my travel costs low so I stayed here.  The check-in was fast and efficient and allowed me to check in early.  The room was clean and the sheets were spotless and fresh.  The carpet in the room could use a cleaning as there were a few stains.  The air conditioning worked well and the hotel was very quiet so I slept well.  If you are looking for value on the north side of Houston, this is it...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r23002661-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>23002661</t>
+  </si>
+  <si>
+    <t>12/25/2008</t>
+  </si>
+  <si>
+    <t>just correct....</t>
+  </si>
+  <si>
+    <t>Arriving after more than 14 hours in airflights, these time we 've slected by advance, an interesting motel in price.So Motel 6 was the selection and not too far from the international airport ( 20 miles ). $64 was the price and we know that this chain of motel are correct and never more... This time was not an exception, no charm, smoke odoor in the stairs, a little in the bedroom even if it was cleaned and sanitazed but the odour is always present.Our room was too large for the furniture inside and it's surprising when you come in.No wifi, no breakfast , a coffee in the morning... just correct....MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>Arriving after more than 14 hours in airflights, these time we 've slected by advance, an interesting motel in price.So Motel 6 was the selection and not too far from the international airport ( 20 miles ). $64 was the price and we know that this chain of motel are correct and never more... This time was not an exception, no charm, smoke odoor in the stairs, a little in the bedroom even if it was cleaned and sanitazed but the odour is always present.Our room was too large for the furniture inside and it's surprising when you come in.No wifi, no breakfast , a coffee in the morning... just correct....More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1357,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1389,2462 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>238</v>
+      </c>
+      <c r="X27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s">
+        <v>305</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>306</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_498.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_498.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r599732105-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>244388</t>
+  </si>
+  <si>
+    <t>599732105</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>I have spent the best time with their super friendly staff and with their neat and clean environment... I would suggest everyone to spend their best time in motel 6 north spring ..... my experience with them is just more than perfectMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Hotel Manager at Motel 6 Houston North - Spring, responded to this reviewResponded July 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2018</t>
+  </si>
+  <si>
+    <t>I have spent the best time with their super friendly staff and with their neat and clean environment... I would suggest everyone to spend their best time in motel 6 north spring ..... my experience with them is just more than perfectMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r593052890-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>593052890</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Perfect and a taste of home in Spring Texas</t>
+  </si>
+  <si>
+    <t>This motel is very nice and clean and comfortable. The staff are lovely and very helpful and friendly. The pool is excellent. The location is perfect, just off the state highway, and right next to a range of restaurants and shops. I found this motel on booking.com and for the price it is excellent value for money and very safe and secure. I absolutely love Motel 6, and I will be coming back! Excellent for business, pleasure, and family and dog friendly. Very good 5 star *****MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Hotel Manager. at Motel 6 Houston North - Spring, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>This motel is very nice and clean and comfortable. The staff are lovely and very helpful and friendly. The pool is excellent. The location is perfect, just off the state highway, and right next to a range of restaurants and shops. I found this motel on booking.com and for the price it is excellent value for money and very safe and secure. I absolutely love Motel 6, and I will be coming back! Excellent for business, pleasure, and family and dog friendly. Very good 5 star *****More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r582736100-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>244388</t>
-  </si>
-  <si>
     <t>582736100</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Motel6HoustonNorth, Hotel Manager at Motel 6 Houston North - Spring, responded to this reviewResponded June 2, 2018</t>
   </si>
   <si>
@@ -205,9 +259,6 @@
   </si>
   <si>
     <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>Motel6HoustonNorth, Hotel Manager at Motel 6 Houston North - Spring, responded to this reviewResponded May 2, 2018</t>
@@ -262,6 +313,63 @@
 So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more....I wanted to be fair, so the extra star was because the beds were comfortable. The rest of our stay was so horrible it was almost comical.Bulletpoints - check in with a trainee, a trainer and another person, all confused about everything, bickering and doing then un-doing their progress. I think the third woman actually had a clue but couldn't speak up. Grim lobby, grim everything, not clean and looked abandoned. We werent expecting 4 star atmosphere, but the shabbiness, grime, broken ice machine in parts, all just bad.Room - huge, and the beds were comfy. The towels, soap, etc were fine, its a cheap motel. Oh wait, it really wasn't, we'll get to that in a sec.  Room not ready, went downstairs, wrong room, got new card after more confusion, back upstairs, had to let cleaner in.    TV not working, when we asked for help a nice person came up and figured out how to turn it on, it seemed it had been disabled. We then saw why, the screen was split in two, half fine, half an inch higher. Bizarre and unwatchable.Pool was closed, ok, it was January, but looked like a bomb site.The best though, was two strangers entering the room at 7am. They had been given the wrong keys. Hello!So, horrible. We switched to... the Hampton in, was it? Cant remember, but we paid about 18 or 20 a night more. PARADISE compared.Avoid this Motel 6.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r557073911-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>557073911</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Dirty and smelly!  Not worth the price.</t>
+  </si>
+  <si>
+    <t>This is the worst Motel 6 I have every been in.  It is dirty and has an odd smell in the room.  Do yourself a favor and don't stay here.  The floors in the room were sticky, The windows were dirty,  The bed was rock hard.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Houston North - Spring, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>This is the worst Motel 6 I have every been in.  It is dirty and has an odd smell in the room.  Do yourself a favor and don't stay here.  The floors in the room were sticky, The windows were dirty,  The bed was rock hard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r540807773-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>540807773</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Nice value</t>
+  </si>
+  <si>
+    <t>I was very surprised at what I got for the price of the room.  The room looks just like their photo.  I was greeted by nice and easy-going hosts.  It was a quick reservation.  The room is spacious and has a refrigerator, microwave, table &amp; chairs, Bible, huge bed with big pillows and water that heats up quickly.  It was relatively quiet the evening I was there.  They have free coffee, and snack machines with even water are easily accessible.  Checkout is at 11:00AMMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>I was very surprised at what I got for the price of the room.  The room looks just like their photo.  I was greeted by nice and easy-going hosts.  It was a quick reservation.  The room is spacious and has a refrigerator, microwave, table &amp; chairs, Bible, huge bed with big pillows and water that heats up quickly.  It was relatively quiet the evening I was there.  They have free coffee, and snack machines with even water are easily accessible.  Checkout is at 11:00AMMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r526347262-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -337,9 +445,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team at Motel 6 Houston North - Spring, responded to this reviewResponded March 23, 2017</t>
   </si>
   <si>
@@ -349,6 +454,57 @@
     <t>The room is dimly lit with yellow light. there are holes in the wall the smoke alarm was hanging off the wall wires hanging out of the wall. The window didn't close all the way the sheets had visible stains all over them. there were cockroaches in the bathroom. We left out to get dinner when we got back some guy was lingering in the hallway on our floor and said "hey hey i need to ask you something" he looked super shady but i responded as we walked to our door and he said " do you smoke? i can give you a good deal" I said no thanks and went inside my room. The guy tried to sell us drugs in the hallway. Then when i got undressed for a shower the water wasn't  running. There wAS NO RUNNING WATER!!!  we couldn't shower or  flush the toilet or wash our hands. I called downstairs and the guy said he would get the issue fixed and never did. This place is really scary and rundown. very "hood" drug addicts in the hallways no running water lots of cockroaches dirty room window doesn't close al the way. It was a nightmare. left the next morning and got a refund for the rest of the days. DONT come here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r464888934-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>464888934</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very loud </t>
+  </si>
+  <si>
+    <t>Room was clean enough except for the tub. Staff was friendly.  Bed was comfortable and I didn't see any bugs.  The hallway smells of smoke since the smoking and nonsmoking rooms share a hall, the side door entrance was littered with garbage because there was no trash bin available and the push bar on the inside was coated in a sticky substance. Upon check in I was asked to sign a document stating I would make sure the TV worked within 30 minutes of check in or I would be billed for a new one.  I don't even watch TV and had never heard of this before at any other hotel I've stayed at! I took a picture of the working TV just prior to checking out so I would have photographic proof with a time stamp if it becomes an issue. Also, bring ear plugs, you can hear every door shut, dog bark and word spoken in the hallway as well as constant traffic. I left exhausted.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean enough except for the tub. Staff was friendly.  Bed was comfortable and I didn't see any bugs.  The hallway smells of smoke since the smoking and nonsmoking rooms share a hall, the side door entrance was littered with garbage because there was no trash bin available and the push bar on the inside was coated in a sticky substance. Upon check in I was asked to sign a document stating I would make sure the TV worked within 30 minutes of check in or I would be billed for a new one.  I don't even watch TV and had never heard of this before at any other hotel I've stayed at! I took a picture of the working TV just prior to checking out so I would have photographic proof with a time stamp if it becomes an issue. Also, bring ear plugs, you can hear every door shut, dog bark and word spoken in the hallway as well as constant traffic. I left exhausted.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r396159589-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>396159589</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Stay for Houston event</t>
+  </si>
+  <si>
+    <t>Great price, convenient off I-45. Easy to find, clisr to eating places- donut shop, pizza place witjin walking distance in parking lot of attachef shopping center.bPractical place to stay on a budget. Staff very friendly. Peaceful stay! Elevator in hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Great price, convenient off I-45. Easy to find, clisr to eating places- donut shop, pizza place witjin walking distance in parking lot of attachef shopping center.bPractical place to stay on a budget. Staff very friendly. Peaceful stay! Elevator in hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r392646491-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -367,12 +523,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Motel6HoustonNorth, Webmaster at Motel 6 Houston North - Spring, responded to this reviewResponded July 27, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 27, 2016</t>
-  </si>
-  <si>
     <t>Fix the Lobby - It was a mess.  This is not exactly what you want a guest to see as the first impression... If it had not been so late I might have moved to another Motel 6 somewhere else.  Provided AARP discount.  close to foodMore</t>
   </si>
   <si>
@@ -427,6 +577,48 @@
     <t>The motel has a very tight parking lot, so if there are trucks and big vehicles you will be at risk for damage. The room and hallways were clean but there were no paintings or pictures. The bathroom was old with the tile mismatched and discolored. The room had a musty scent.The primary reason for the low rating is the staff, although friendly and courteous they were inept. Excessive paperwork upon checkin. I was awoken 1 hour into my sleep because they had missed me signing that I was pet free. I would never recommend a stay at this motel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r324887561-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>324887561</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Nice room for price</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here, the room was decent and the TV was a good size. I Also enjoyed the many cable channels provided. Wifi works great. Definitely gonna stay here again. Front desk attendants were also very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here, the room was decent and the TV was a good size. I Also enjoyed the many cable channels provided. Wifi works great. Definitely gonna stay here again. Front desk attendants were also very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r324745398-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>324745398</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>It's not overly priced, nice size flat screen televisions, good channels, decent WiFi, not in a bad location. Plenty of stores and restaurants in the vicinity. Decent size rooms, night time security and cameras.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>It's not overly priced, nice size flat screen televisions, good channels, decent WiFi, not in a bad location. Plenty of stores and restaurants in the vicinity. Decent size rooms, night time security and cameras.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r317563252-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -463,9 +655,6 @@
     <t>Clean rooms, great price and wonderful customer service. I stay here very frequently and would recommend it to anyone. The front desk girl is very friendly. Great cable package and snack machines as wellMoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>Clean rooms, great price and wonderful customer service. I stay here very frequently and would recommend it to anyone. The front desk girl is very friendly. Great cable package and snack machines as wellMore</t>
   </si>
   <si>
@@ -490,6 +679,57 @@
     <t>I stayed here for 3 weeks now in two separate occasions and staff has always been very helpful and friendly, my kids love the pool. The price is very cheap for a good area and much bigger than  Intown suites and other motels I have paid for. I do recommend this place, never had a problem.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r298092548-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>298092548</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Sleep in an alley, it would cleaner</t>
+  </si>
+  <si>
+    <t>Run, go back to your car &amp; sleep there. Sleep in an alley, it would be cleaner. Place stunk like rotten rot, dirty people lurking in the parking lot &amp; out by the pool. That was before we got to room. Out of desperation we stayed, you get what you pay for .... Will never let a friend make motel suggestions againMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston North - Spring, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Run, go back to your car &amp; sleep there. Sleep in an alley, it would be cleaner. Place stunk like rotten rot, dirty people lurking in the parking lot &amp; out by the pool. That was before we got to room. Out of desperation we stayed, you get what you pay for .... Will never let a friend make motel suggestions againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r282780798-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>282780798</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Gross gross gross</t>
+  </si>
+  <si>
+    <t>Stay away from this place -- it smells of mold and mildew.  Standing water all over the place including the elevator!  Hallways were dirty, floors stained and sticky and the stench of rotting something was all over the building.  My room was not up to building code with only two outlets. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston North - Spring, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Stay away from this place -- it smells of mold and mildew.  Standing water all over the place including the elevator!  Hallways were dirty, floors stained and sticky and the stench of rotting something was all over the building.  My room was not up to building code with only two outlets. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r281776409-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -532,9 +772,6 @@
     <t>Not a bad place for what you pay. Biggest complaint is the noise . Don't stay here if you  are looking for peace and quiet.  Allot of outside noise as well as people staying there that don't want to go to sleep i guess....  Best thing about my room was the Shower i took . Great water pressure and Hot water.....  This is the 2nd time i have stayed there and both times were Ok . Like i said the noise is the big problem for me.  Also i had a discount code i used online to get 10 % off my rate. Total with tax was $56 ... Can't beat that....MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Not a bad place for what you pay. Biggest complaint is the noise . Don't stay here if you  are looking for peace and quiet.  Allot of outside noise as well as people staying there that don't want to go to sleep i guess....  Best thing about my room was the Shower i took . Great water pressure and Hot water.....  This is the 2nd time i have stayed there and both times were Ok . Like i said the noise is the big problem for me.  Also i had a discount code i used online to get 10 % off my rate. Total with tax was $56 ... Can't beat that....More</t>
   </si>
   <si>
@@ -556,9 +793,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Houston North - Spring, responded to this reviewResponded June 1, 2015</t>
   </si>
   <si>
@@ -568,6 +802,42 @@
     <t>July 2014 - It smelt terrible-like mold and mildew. Stray cats all over the place. When I turned on the room light I saw bugs scurrying behind the headboard. Lifted up the mattress and saw more bugs. Demanded refund and found another hotel. I'm not a snob, stayed at plenty of cruddy motels without writing a nasty review or demanding refund. Absolutely disgusting, Hope they have made improvements since 2014. I can't believe they are affiliated w/ Motel 6.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r275154057-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>275154057</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Not the best location, but have the best service and room quality for its price</t>
+  </si>
+  <si>
+    <t>I initially stayed here when I first arrived to Houston. I was uncomfortable with the shady people/environment around the hotel and decided to stay at the extended stay. Staying there made me appreciate the Direct TV, comfortable bed, hot showers, room service, and last but certainly not least... THE FAST WIFI. For the price they sure do offer a lot and I can't complain.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r255041478-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>255041478</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel close to the George Bush airport and phoned this one while we were on the road.  They told us they didn't take phone reservations, but they'd hold the room for us for 2 hours.  hmmm.  Got there and found a police chase happening inside and outside on the parking lot.  Not a great beginning, but we were tired and it was late.  The room we were given smelled like bug spray.  Happily it was a handicapped room so there was no carpet to beware of.  And the bug spray was working as we didn't find any unpleasant visitors.  No coffee in the room or in the lobby.  Sounds of loud arguments coming from the hall area during the evening and night. The young lady at the front reception was pleasant and tried to be helpful, but her boss/manager was constantly berating her in front of guests.  I didn't appreciate that.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel close to the George Bush airport and phoned this one while we were on the road.  They told us they didn't take phone reservations, but they'd hold the room for us for 2 hours.  hmmm.  Got there and found a police chase happening inside and outside on the parking lot.  Not a great beginning, but we were tired and it was late.  The room we were given smelled like bug spray.  Happily it was a handicapped room so there was no carpet to beware of.  And the bug spray was working as we didn't find any unpleasant visitors.  No coffee in the room or in the lobby.  Sounds of loud arguments coming from the hall area during the evening and night. The young lady at the front reception was pleasant and tried to be helpful, but her boss/manager was constantly berating her in front of guests.  I didn't appreciate that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r240434321-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -616,6 +886,42 @@
     <t>I stayed at this hotel since I was scheduled to do an art show nearby.  I was disenchanted with the hotel I usually stay at when I'm in the area, so thought I would try Motel 6.  When I checked in, the desk clerk was super friendly and told me that I could park in a handicapped space since I had display items for my show in the car and it would be safe.  I did not opt to take advantage of her kind offer but the next night, the girl on duty was full of attitude and told me if I parked in a handicapped space, my car would be towed.  I told her the only person who would call a tow truck would be her and she gave me attitude.  I reported her to person on duty on Sunday morning and she got one of the owners on the phone.  However, it did not rectify the situation from the night before.  I also discovered a number of people live at this hotel---and I saw a few somewhat shady folks.  Since I travel alone, I wished I had stayed elsewhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r220155792-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>220155792</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Rude and disgusting</t>
+  </si>
+  <si>
+    <t>First of all my husband has a seeing eye dog I found this hotel online but we were close enough we just went in to book and they had plenty of rooms online and we walked in and was told they had no rooms. Long story short I ended up booking a room I was told they didn't have online. Then went and checked in and was told that room wasn't available they only had smoking I told them I did not want that and wanted to talk to the manger then amazingly they had the room I booked! From no room to smoking only to a room. Disrespectful just because someone has a disability. Then we got the room and there was a used condom under the edge of the bed clearly visible!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all my husband has a seeing eye dog I found this hotel online but we were close enough we just went in to book and they had plenty of rooms online and we walked in and was told they had no rooms. Long story short I ended up booking a room I was told they didn't have online. Then went and checked in and was told that room wasn't available they only had smoking I told them I did not want that and wanted to talk to the manger then amazingly they had the room I booked! From no room to smoking only to a room. Disrespectful just because someone has a disability. Then we got the room and there was a used condom under the edge of the bed clearly visible!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r211224801-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>211224801</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Motel has made great gains</t>
+  </si>
+  <si>
+    <t>I have stayed here for a while now. They continue to improve the property on a daily basis. Any issues I have had where taken care of right away. Over the last few months they have improved cleanliness and safety at this location. I would recommend staying here to my own family. The staff is very friendly and accommodating. Thank you for a great experience.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r208511834-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -662,6 +968,39 @@
   </si>
   <si>
     <t>The hotel manager and the staff does not follow the same rules. When booking the room one staff member told me I could check in anytime. Someone told me only after 3pm. Then I specifically reserved a king bed  with fridg and microwave. Manager continued to try to make stay in double room. When I insisted that my money be returned he began to meet my needs. Hot water exited the building by10:30pm. I asked for extra pillows for my tired aching leg at 8:45 and received it by  10:00.  No soap in the restroom,the carpet was wet in the hallway. Overall if I has to ever sleep here again, I would rather sleep in my car parked on I-45 No thank you!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r204948297-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>204948297</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Well run motel</t>
+  </si>
+  <si>
+    <t>This motel achieves the right balance between low cost and amenities. For a room this inexpensive you can't expect a suite with extra amenities. The best feature of the motel which makes it a decent place is the professional managers. A husband/wife team are behind the front desk much of the time. They are always helpful, always have smiles on their faces, and always prompt with any of my requests. Good service by friendly people is very important to me, as I've been staying there for some.I've not encountered any issues with the neighborhood. No fights, no sketchy people by my experience.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r204607092-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>204607092</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent Service &amp; Very Neat &amp; Clean</t>
+  </si>
+  <si>
+    <t>Hi All,Sharing my experience:Excellent service. Very Neat &amp; clean place. Very friendly environment. Very Supportive &amp; very co-operative. Rooms are very spacious. There are super market , eatable store like pizza, burger, medicine store like pharmacy &amp; many more at nearby walk able distance. Rates are really very competitive. 10-15 Mins away from airport. Super shuttle will cost not more than $20.Thanks</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r204160803-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
@@ -696,9 +1035,6 @@
 After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up,...So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!We get to our room and notice the sliding window is not closed and will not close.After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up, frustrated he blows out what do you want. I tell him our room key will not open the door. He rolls his eyes and grabs the key to reprogram it for our room. There were several people in the lobby at this time very upset that no one was around to cover the window. And VERY UPSET no one would answer the phone! If you don't mind being treated like trash when you stay at a hotel then go ahead and stay here. As for me I will not ever stay here again!  Oh yeah and the bathtubs in both rooms looked like they needed a good scrubbing. I was tempted to go across the parking lot to Super Target and buy my own cleaning supplies to clean the tub. Disgusting!MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!
 We get to our room and notice the sliding window is not closed and will not close.
 After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up,...So my friends arrive late Friday night around 10pm, and the hotel had already called to ask if we were still checking in, because they were going to give our room away to someone else!We get to our room and notice the sliding window is not closed and will not close.After going down to the front desk and waiting for 15 minutes for someone to come to the window and continously ringing the bell the manager finally arrives and comes up to the room. Immediately he starts telling me he can give us a full refund, and that we should have checked the window first before we put our bags in the room. Wait a minute-hold up! Why should we have to check the room-he know very well the window would not close. I ask if he has another room he can give us, and reluctantly he offers us another room. So we move our bags across the hall to the other room and he says he will be back shortly we our new room key.  30 minutes later he shows up with the room key. So the next evening when we return to our room guess what---our room key will not open the door. We already knew this and is why one of stays downstairs at the window. After an hour of calling the hotel and ringing the bell at the front desk the manager shows up, frustrated he blows out what do you want. I tell him our room key will not open the door. He rolls his eyes and grabs the key to reprogram it for our room. There were several people in the lobby at this time very upset that no one was around to cover the window. And VERY UPSET no one would answer the phone! If you don't mind being treated like trash when you stay at a hotel then go ahead and stay here. As for me I will not ever stay here again!  Oh yeah and the bathtubs in both rooms looked like they needed a good scrubbing. I was tempted to go across the parking lot to Super Target and buy my own cleaning supplies to clean the tub. Disgusting!More</t>
@@ -719,6 +1055,42 @@
     <t xml:space="preserve">We were driving 9 hours to this motel. We were three hours away when the guy at the motel called and said he was giving our room away because we weren't there. We told him we were on the way and he mumbled something about giving away our room. When we finally got there he told us they don't allow dogs so we couldn't stay or we could stay and leave the dogs in the car!! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r194788408-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>194788408</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Been in the Houston area for the last week and this motel 6 is a good one. Its easy on and off from I-45, has plenty of food options close by. For you TV fans it has a huge selection. Also free wi-fi.I will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r189051303-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>189051303</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>roach's drug's hooker's fight's what a great time we had! (( NOT )))</t>
+  </si>
+  <si>
+    <t>please be on the look out for your safety and lock up everything you have! roaches are everywhere drug dealersare just as bad! the staff just seams to look the otherway! run as fast as you can and stay clear! there was a fight by the pool around 4pm then some guy was beating on my door at 10pm and i dont mean knocking, then at around 11pm there was yet another fight in the hall! (( over drugs)) cops came so i tought all way clear! no it just got worse, at 3am i went to the frount desk and they said they new nothing about it! ( with the cops in the lobby? ) just stay clear!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>please be on the look out for your safety and lock up everything you have! roaches are everywhere drug dealersare just as bad! the staff just seams to look the otherway! run as fast as you can and stay clear! there was a fight by the pool around 4pm then some guy was beating on my door at 10pm and i dont mean knocking, then at around 11pm there was yet another fight in the hall! (( over drugs)) cops came so i tought all way clear! no it just got worse, at 3am i went to the frount desk and they said they new nothing about it! ( with the cops in the lobby? ) just stay clear!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r187006801-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -734,9 +1106,6 @@
     <t>Pros:-Room was neat and clean. Good motel at low price.Cons:-Someone was watching TV with loud sound past midnight. I could hear people talking in the hallway past midnight.Also, water flow is slow which is expected.</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r183006261-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1146,39 @@
   </si>
   <si>
     <t>I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave...I stay in hotels 2 or 3 times a week as I travel all the time. I don't stay at expensive places because I can't afford to. I know not to expect perfection. I do use Trip Advisor always in finding a place to go so I read the reviews.  Having said that...this Motel 6 has a lot of good points but also has a lot of bad.  GOOD=room was clean and large and air was fine. Rooms did not smell. Internet was good and TV was great. Remote worked!  Lots of channels. Staff was friendly. Going thru renovations no doubt.  BAD=hallways dirty and elevator smelled. Old mop and water sitting by elevator when we checked in and out.  Surprised elevator passes inspection. Only 2 towels in bathroom and I think 1 was folded up wet and had soured. Went to desk to ask for more. Had to go back to room to bring her the dirty towels first. Then had to ask 3 times for 4 towels and 2 wash cloths. Ran out of TP right before checkout. Wonder if I would have to take the empty roll to get more?? This is a big Motel 6 and it just feels dirty outside of the room. I didn't feel completely safe. Probably wont stay again anytime soon. I hope once renovations are done it will be a great place. Oh and just as we were getting ready to leave the roach bug made his appearance. I hate roach bugs !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r170130665-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>170130665</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Clean rooms.wifi worked great and closet to restraint s It was very quiet so I was able to complete most of my projects for work. Very friendly and helpful staff. Will definitely return next time I'm in town. Ask for patel he is very friendly</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r168851441-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>168851441</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>great place too stay</t>
+  </si>
+  <si>
+    <t>loved staying here really nice place too stay very quit and really nice people plus close too sevreal stores and attractions really nice rooms big tvs close too good food.... nice pool and friendly vstaff</t>
+  </si>
+  <si>
+    <t>July 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r167466073-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
@@ -837,6 +1239,48 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r132567081-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>132567081</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>I came to this hotel after I booked online, pictures were totaly different than the motel. I checked into the hotel room and they gave me the wrong key after charging me 38 extra dollars on my credit card, I got in the hallway and my god it smelled terrible and when I got in my room it smelled like pure smoke, meaning weed, I called the front desk and they said nothing could be done, said it must of been the smell of paint, so I laid down and I got two phone calls from clients that had seen an escort the night before wanting theyre watch or money back, and then I got a knock at the door with a guy wanting sex, I freaked out and called the front desk and they said well you can leave but no refunds, I just left and had to sleep in my car because I had no more money for a hotel room, god what a nightmareMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I came to this hotel after I booked online, pictures were totaly different than the motel. I checked into the hotel room and they gave me the wrong key after charging me 38 extra dollars on my credit card, I got in the hallway and my god it smelled terrible and when I got in my room it smelled like pure smoke, meaning weed, I called the front desk and they said nothing could be done, said it must of been the smell of paint, so I laid down and I got two phone calls from clients that had seen an escort the night before wanting theyre watch or money back, and then I got a knock at the door with a guy wanting sex, I freaked out and called the front desk and they said well you can leave but no refunds, I just left and had to sleep in my car because I had no more money for a hotel room, god what a nightmareMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r131803008-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>131803008</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>should be called the waiting room for the county jail</t>
+  </si>
+  <si>
+    <t>well lets see i was stuck in this as i call it my own hell ! i was there for a long time due to work but it took me 5 min to get out ! it was a nice place to stay till the new owners came along! now there are bugs!~ but the best part is the cops are there just about every night! then there are the good points if you are looking for drugs well look no farther! just ask anyone after 10pm they are everywhere! need a lady of the night no prob there there and the good part they come to you all night long they are calling and knocking! then there is the pool! well it works till it turns summer then it is put out of service! but don't forget about the owner he is so helpfull till you need somthing then good ol jay is no where to be found so after tons of comlaints he got his brother in there to help ! great but he cant talk one word of anything you can understand! if he would have kept the staff that came with the motel it would have helped ! it has gone down hill from day one of the take over ! so all in all ! run pay a few bucks more and stay clear! the worst part is i stay in alot of motel 6...well lets see i was stuck in this as i call it my own hell ! i was there for a long time due to work but it took me 5 min to get out ! it was a nice place to stay till the new owners came along! now there are bugs!~ but the best part is the cops are there just about every night! then there are the good points if you are looking for drugs well look no farther! just ask anyone after 10pm they are everywhere! need a lady of the night no prob there there and the good part they come to you all night long they are calling and knocking! then there is the pool! well it works till it turns summer then it is put out of service! but don't forget about the owner he is so helpfull till you need somthing then good ol jay is no where to be found so after tons of comlaints he got his brother in there to help ! great but he cant talk one word of anything you can understand! if he would have kept the staff that came with the motel it would have helped ! it has gone down hill from day one of the take over ! so all in all ! run pay a few bucks more and stay clear! the worst part is i stay in alot of motel 6 stores and i will never go back here !!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>well lets see i was stuck in this as i call it my own hell ! i was there for a long time due to work but it took me 5 min to get out ! it was a nice place to stay till the new owners came along! now there are bugs!~ but the best part is the cops are there just about every night! then there are the good points if you are looking for drugs well look no farther! just ask anyone after 10pm they are everywhere! need a lady of the night no prob there there and the good part they come to you all night long they are calling and knocking! then there is the pool! well it works till it turns summer then it is put out of service! but don't forget about the owner he is so helpfull till you need somthing then good ol jay is no where to be found so after tons of comlaints he got his brother in there to help ! great but he cant talk one word of anything you can understand! if he would have kept the staff that came with the motel it would have helped ! it has gone down hill from day one of the take over ! so all in all ! run pay a few bucks more and stay clear! the worst part is i stay in alot of motel 6...well lets see i was stuck in this as i call it my own hell ! i was there for a long time due to work but it took me 5 min to get out ! it was a nice place to stay till the new owners came along! now there are bugs!~ but the best part is the cops are there just about every night! then there are the good points if you are looking for drugs well look no farther! just ask anyone after 10pm they are everywhere! need a lady of the night no prob there there and the good part they come to you all night long they are calling and knocking! then there is the pool! well it works till it turns summer then it is put out of service! but don't forget about the owner he is so helpfull till you need somthing then good ol jay is no where to be found so after tons of comlaints he got his brother in there to help ! great but he cant talk one word of anything you can understand! if he would have kept the staff that came with the motel it would have helped ! it has gone down hill from day one of the take over ! so all in all ! run pay a few bucks more and stay clear! the worst part is i stay in alot of motel 6 stores and i will never go back here !!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r129373218-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -885,12 +1329,45 @@
     <t>I actually used to stay there frequently for concerts at Cynthia Woods and thought it would be a good economical place for my daughter and I to stay for a softball tournament.  Well I booked online and much to my horror it smelled and looked like an ill run shelter for crack heads.  Read the rest of my reviews - I'm honest but this was filthy and nasty.  Carpet was horrible, cigarette buts in the stair well, trash everywhere, wires hanging out.  Now for the price I didn't expect much but I was honestly on edge the entire night - I think half the building lived there.  Honestly the bathroom was clean but the bed was broken, the blanket had burn holes and pubic hairs on it - the sheets were just changed and were clean so I removed the bed coverings and used our softball blankets and pillows from the car.  The Motel 6 chain should revolk there priviledge of using the name - so incredibly disgusting.MoreShow less</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>I actually used to stay there frequently for concerts at Cynthia Woods and thought it would be a good economical place for my daughter and I to stay for a softball tournament.  Well I booked online and much to my horror it smelled and looked like an ill run shelter for crack heads.  Read the rest of my reviews - I'm honest but this was filthy and nasty.  Carpet was horrible, cigarette buts in the stair well, trash everywhere, wires hanging out.  Now for the price I didn't expect much but I was honestly on edge the entire night - I think half the building lived there.  Honestly the bathroom was clean but the bed was broken, the blanket had burn holes and pubic hairs on it - the sheets were just changed and were clean so I removed the bed coverings and used our softball blankets and pillows from the car.  The Motel 6 chain should revolk there priviledge of using the name - so incredibly disgusting.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r119797303-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>119797303</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Proceed With Caution!!</t>
+  </si>
+  <si>
+    <t>I have been staying here every week for 5 months. There have been good stays and bad ones. More bad than good. The hotel is in the process of being renovated. However, if you stay in a renovated room, they charge $15.00 to $25.00 extra, irregardless of your reservation, guarantee, or internet rate. If you do not want to be disturbed, you have to make, or bring your own DO NOT DISTURB sign, as the hotel does not provide them. Their Housekeeping Staff tend to ignore the signs anyway. Even if you advise the Front Desk that cleaning services are not required, the staff knock on the door. And if you do not answer, they attempt entry anyway! This has happened several times. Management is unresponsive. I have lodged complaints with Motel 6 Corporate and am awaiting a response. I understand that this is a "budget" property and chain, but they have major issues with common courtesy and guest respect. This hotel allows pets, but they do not enforce their own policy when guest leave pets unattended. If you happen to be in a room next to one of these guest, expect to be disturbed by barking, howling dogs. And as above, management and staff are very unresponsive. Unfortunately, I really could not recommend this hotel to anyone. One plus: location. It is close to my workplace and the N. Houston/Spring area has plenty of stores, restaurants, etcMoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying here every week for 5 months. There have been good stays and bad ones. More bad than good. The hotel is in the process of being renovated. However, if you stay in a renovated room, they charge $15.00 to $25.00 extra, irregardless of your reservation, guarantee, or internet rate. If you do not want to be disturbed, you have to make, or bring your own DO NOT DISTURB sign, as the hotel does not provide them. Their Housekeeping Staff tend to ignore the signs anyway. Even if you advise the Front Desk that cleaning services are not required, the staff knock on the door. And if you do not answer, they attempt entry anyway! This has happened several times. Management is unresponsive. I have lodged complaints with Motel 6 Corporate and am awaiting a response. I understand that this is a "budget" property and chain, but they have major issues with common courtesy and guest respect. This hotel allows pets, but they do not enforce their own policy when guest leave pets unattended. If you happen to be in a room next to one of these guest, expect to be disturbed by barking, howling dogs. And as above, management and staff are very unresponsive. Unfortunately, I really could not recommend this hotel to anyone. One plus: location. It is close to my workplace and the N. Houston/Spring area has plenty of stores, restaurants, etcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r118746382-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>118746382</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>Very professional staff</t>
+  </si>
+  <si>
+    <t>This is an extended stay hotel so the rooms are very "lived in".  The mirrored doors on the closet were broken and the water was questionable. BUT the staff was very friendly and handled all situations professioanlly. All appliances were functioning and everything we needed for our extended stay (30 days) was available. Security was always around so we felt safe. A good value.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r116001629-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1420,42 @@
   </si>
   <si>
     <t>I wanted a cheap hotel as I was trying to keep my travel costs low so I stayed here.  The check-in was fast and efficient and allowed me to check in early.  The room was clean and the sheets were spotless and fresh.  The carpet in the room could use a cleaning as there were a few stains.  The air conditioning worked well and the hotel was very quiet so I slept well.  If you are looking for value on the north side of Houston, this is it...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r61382038-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>61382038</t>
+  </si>
+  <si>
+    <t>04/14/2010</t>
+  </si>
+  <si>
+    <t>Not impressive, but clean.</t>
+  </si>
+  <si>
+    <t>PROSLaundry facilities.  Convenient freeway access.  Clean overall.CONSHard to find. Arrived at night--the employee was barricaded in the office with only a little slot to slid my card in.  Felt like it was not a safe place to be though it is a decent part of town.  Hallways stinky.  Looks old.  No breakfast. No lobby area or amenities. Got asked for money by another patron while doing laundry.  Reinforced the need to stay with my laundry.  Room looked old and smelled--possibly like paint.  No art, small TV, old looking bed.  Bed sheets stained.  Old looking.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r34597476-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>34597476</t>
+  </si>
+  <si>
+    <t>07/13/2009</t>
+  </si>
+  <si>
+    <t>will definatly stay again</t>
+  </si>
+  <si>
+    <t>I stayed here in may for 10 nights and travelled from england. I had a wonderful stay and would definatly stay again. There was plenty of shops nearby, the pool was lovely and cleaned daily. The airport was close by, about 15 minutes from the motel. The rooms were pleasant and the staff were very friendly and helpful. The price is very reasonable and i look forward to staying here again in the future.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d244388-r23002661-Motel_6_Houston_North_Spring-Spring_Texas.html</t>
@@ -1498,7 +2011,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1562,28 +2075,32 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1599,56 +2116,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1664,34 +2177,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1703,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1725,43 +2238,41 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
       <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>1</v>
@@ -1770,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1792,40 +2303,40 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1835,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1857,56 +2368,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>108</v>
       </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="X8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -1922,58 +2433,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
         <v>114</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
         <v>120</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>121</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1989,43 +2494,43 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>123</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>125</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>127</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>119</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>1</v>
@@ -2077,37 +2582,35 @@
         <v>135</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -2123,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2132,49 +2635,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -2190,7 +2687,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2199,49 +2696,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -2257,7 +2748,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2266,47 +2757,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2322,7 +2813,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2331,43 +2822,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2383,7 +2880,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2392,31 +2889,33 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>169</v>
       </c>
-      <c r="J16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>173</v>
-      </c>
       <c r="O16" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2426,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2448,7 +2947,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2457,45 +2956,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -2511,7 +3008,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2520,33 +3017,33 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
         <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2555,10 +3052,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -2574,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2583,45 +3084,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="n">
         <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
       <c r="Y19" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -2637,7 +3142,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2646,34 +3151,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2681,10 +3186,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
@@ -2700,7 +3209,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2709,39 +3218,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -2757,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2766,45 +3285,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>220</v>
+      </c>
+      <c r="X22" t="s">
+        <v>221</v>
+      </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
@@ -2820,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2829,49 +3346,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -2887,7 +3398,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2896,49 +3407,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" t="n">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
         <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -2954,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2963,37 +3472,35 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3001,7 +3508,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -3017,7 +3524,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3026,39 +3533,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
@@ -3074,7 +3589,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3083,49 +3598,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>237</v>
       </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>238</v>
-      </c>
-      <c r="X27" t="s">
-        <v>239</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -3141,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3150,45 +3659,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3204,7 +3707,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3213,37 +3716,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3251,7 +3754,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
@@ -3267,7 +3770,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3276,41 +3779,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" t="s">
-        <v>101</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3318,7 +3817,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -3334,7 +3833,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3343,41 +3842,37 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="n">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3385,7 +3880,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
@@ -3401,7 +3896,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3410,41 +3905,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>270</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3452,7 +3943,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
@@ -3468,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3477,37 +3968,41 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3515,7 +4010,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
@@ -3531,7 +4026,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3540,41 +4035,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>281</v>
-      </c>
-      <c r="O34" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3582,7 +4073,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
@@ -3598,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3607,43 +4098,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -3659,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3668,31 +4155,27 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>294</v>
-      </c>
-      <c r="O36" t="s">
-        <v>82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
@@ -3710,7 +4193,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
@@ -3726,7 +4209,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3735,49 +4218,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -3793,7 +4266,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3802,41 +4275,41 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
         <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3844,7 +4317,1709 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>307</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>349</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>349</v>
+      </c>
+      <c r="O44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>361</v>
+      </c>
+      <c r="X45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>376</v>
+      </c>
+      <c r="J48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>380</v>
+      </c>
+      <c r="O48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50" t="s">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s">
+        <v>390</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" t="s">
+        <v>397</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>398</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>407</v>
+      </c>
+      <c r="J53" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" t="s">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>413</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>414</v>
+      </c>
+      <c r="J54" t="s">
+        <v>415</v>
+      </c>
+      <c r="K54" t="s">
+        <v>416</v>
+      </c>
+      <c r="L54" t="s">
+        <v>417</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>419</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>420</v>
+      </c>
+      <c r="J55" t="s">
+        <v>421</v>
+      </c>
+      <c r="K55" t="s">
+        <v>422</v>
+      </c>
+      <c r="L55" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>425</v>
+      </c>
+      <c r="J56" t="s">
+        <v>426</v>
+      </c>
+      <c r="K56" t="s">
+        <v>427</v>
+      </c>
+      <c r="L56" t="s">
+        <v>428</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>411</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>431</v>
+      </c>
+      <c r="J57" t="s">
+        <v>432</v>
+      </c>
+      <c r="K57" t="s">
+        <v>433</v>
+      </c>
+      <c r="L57" t="s">
+        <v>434</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>411</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>436</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>437</v>
+      </c>
+      <c r="J58" t="s">
+        <v>438</v>
+      </c>
+      <c r="K58" t="s">
+        <v>439</v>
+      </c>
+      <c r="L58" t="s">
+        <v>440</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>441</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>449</v>
+      </c>
+      <c r="J60" t="s">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>118</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>457</v>
+      </c>
+      <c r="K61" t="s">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>460</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>461</v>
+      </c>
+      <c r="J62" t="s">
+        <v>462</v>
+      </c>
+      <c r="K62" t="s">
+        <v>463</v>
+      </c>
+      <c r="L62" t="s">
+        <v>464</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>465</v>
+      </c>
+      <c r="O62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>466</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>467</v>
+      </c>
+      <c r="J63" t="s">
+        <v>468</v>
+      </c>
+      <c r="K63" t="s">
+        <v>469</v>
+      </c>
+      <c r="L63" t="s">
+        <v>470</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>471</v>
+      </c>
+      <c r="O63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6140</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>472</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>474</v>
+      </c>
+      <c r="K64" t="s">
+        <v>475</v>
+      </c>
+      <c r="L64" t="s">
+        <v>476</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>477</v>
+      </c>
+      <c r="O64" t="s">
+        <v>118</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
